--- a/Sonia_IndiaLab_English_20200625.xlsx
+++ b/Sonia_IndiaLab_English_20200625.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elaya\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525BD06-44A5-48FD-BE24-DBB2ABD631C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="324">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1462,9 +1456,6 @@
     <t>Homac.ini</t>
   </si>
   <si>
-    <t>no ini found</t>
-  </si>
-  <si>
     <t>GSS8888-PC</t>
   </si>
   <si>
@@ -1484,13 +1475,16 @@
   </si>
   <si>
     <t>Bharathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no ini found(from web.config) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1784,7 +1778,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,19 +1793,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1815,9 +1812,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,7 +1874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1912,27 +1906,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,24 +1940,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2157,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2171,15 +2129,15 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2191,8 +2149,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2205,48 +2163,48 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2257,8 +2215,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -2269,8 +2227,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -2281,8 +2239,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -2293,8 +2251,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -2305,8 +2263,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -2317,8 +2275,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2331,8 +2289,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2343,8 +2301,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2355,8 +2313,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,8 +2325,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2379,8 +2337,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2391,8 +2349,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -2403,8 +2361,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2415,8 +2373,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -2427,8 +2385,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2439,8 +2397,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="34"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2451,8 +2409,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:4">
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2463,8 +2421,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2475,8 +2433,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2487,8 +2445,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2499,8 +2457,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -2511,8 +2469,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2523,8 +2481,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2535,8 +2493,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -2547,8 +2505,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2559,8 +2517,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2571,8 +2529,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="34"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2583,8 +2541,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:4">
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -2595,8 +2553,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2607,8 +2565,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2619,8 +2577,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -2631,8 +2589,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="34"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -2643,8 +2601,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -2655,8 +2613,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="34"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -2667,8 +2625,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -2679,8 +2637,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="34"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -2691,8 +2649,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="34"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -2703,8 +2661,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -2715,8 +2673,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -2727,8 +2685,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -2739,8 +2697,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -2751,8 +2709,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2765,8 +2723,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2777,8 +2735,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="34"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -2789,8 +2747,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="34"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -2801,8 +2759,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="34"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -2813,8 +2771,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="34"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -2825,8 +2783,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="34"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -2837,8 +2795,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="34"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -2849,8 +2807,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -2861,8 +2819,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -2873,8 +2831,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -2885,8 +2843,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+    <row r="60" spans="1:4">
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -2897,8 +2855,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2911,8 +2869,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -2923,8 +2881,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+    <row r="63" spans="1:4">
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -2935,8 +2893,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="33" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2949,8 +2907,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
+    <row r="65" spans="1:4">
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -2961,8 +2919,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -2973,8 +2931,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="33" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2987,28 +2945,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="36" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="34"/>
+      <c r="B68" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
+    <row r="69" spans="1:4">
+      <c r="A69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
+    <row r="70" spans="1:4">
+      <c r="A70" s="34"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -3019,28 +2977,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+    <row r="72" spans="1:4">
+      <c r="A72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
+    <row r="73" spans="1:4">
+      <c r="A73" s="34"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -3051,8 +3009,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -3063,8 +3021,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="33" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3077,48 +3035,48 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="36" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="34"/>
+      <c r="B76" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
+    <row r="77" spans="1:4">
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="36" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="34"/>
+      <c r="B78" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+    <row r="79" spans="1:4">
+      <c r="A79" s="34"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+    <row r="80" spans="1:4">
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -3129,8 +3087,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+    <row r="81" spans="1:4">
+      <c r="A81" s="34"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -3141,8 +3099,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3155,28 +3113,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="34"/>
+      <c r="B83" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
+    <row r="84" spans="1:4">
+      <c r="A84" s="34"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="34"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -3187,8 +3145,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="33"/>
+    <row r="86" spans="1:4">
+      <c r="A86" s="34"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -3199,19 +3157,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -3220,14 +3180,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -3240,7 +3198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3254,16 +3212,16 @@
       <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -3276,8 +3234,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3291,12 +3249,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -3304,21 +3262,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="33"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -3326,17 +3284,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="33"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -3348,8 +3306,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -3363,8 +3321,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -3378,8 +3336,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -3391,8 +3349,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -3404,8 +3362,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -3417,8 +3375,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3432,8 +3390,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -3445,8 +3403,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -3458,8 +3416,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -3471,8 +3429,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -3484,8 +3442,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -3497,8 +3455,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -3510,8 +3468,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -3523,8 +3481,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -3536,8 +3494,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -3549,8 +3507,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="34"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -3562,8 +3520,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -3575,8 +3533,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -3588,8 +3546,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -3601,8 +3559,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -3614,8 +3572,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -3627,8 +3585,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -3640,8 +3598,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -3653,8 +3611,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -3666,8 +3624,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:5">
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -3679,8 +3637,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -3692,8 +3650,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="34"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -3705,8 +3663,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -3718,8 +3676,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -3731,8 +3689,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -3744,8 +3702,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="34"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -3757,8 +3715,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="34"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -3770,8 +3728,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="34"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -3783,8 +3741,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="34"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -3796,8 +3754,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -3811,8 +3769,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="34"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -3826,8 +3784,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="34"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -3841,8 +3799,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -3854,8 +3812,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -3867,8 +3825,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -3880,8 +3838,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:5">
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -3893,8 +3851,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3908,8 +3866,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="34"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -3921,8 +3879,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="34"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -3934,8 +3892,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+    <row r="52" spans="1:5">
+      <c r="A52" s="34"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -3947,8 +3905,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+    <row r="53" spans="1:5">
+      <c r="A53" s="34"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -3960,8 +3918,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="34"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -3973,8 +3931,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="34"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -3986,8 +3944,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
+    <row r="56" spans="1:5">
+      <c r="A56" s="34"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -3999,8 +3957,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -4014,8 +3972,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -4027,8 +3985,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
+    <row r="59" spans="1:5">
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -4042,8 +4000,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+    <row r="60" spans="1:5">
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -4055,8 +4013,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="34" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4070,8 +4028,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+    <row r="62" spans="1:5">
+      <c r="A62" s="34"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -4083,8 +4041,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+    <row r="63" spans="1:5">
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -4096,8 +4054,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="33" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="34" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4111,8 +4069,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
+    <row r="65" spans="1:5">
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -4124,8 +4082,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
+    <row r="66" spans="1:5">
+      <c r="A66" s="34"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -4137,8 +4095,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="33" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4152,12 +4110,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="37" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="34"/>
+      <c r="B68" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4165,17 +4123,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="36"/>
+    <row r="69" spans="1:5">
+      <c r="A69" s="34"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
+    <row r="70" spans="1:5">
+      <c r="A70" s="34"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -4187,12 +4145,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -4200,17 +4158,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+    <row r="72" spans="1:5">
+      <c r="A72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
+    <row r="73" spans="1:5">
+      <c r="A73" s="34"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -4222,8 +4180,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
+    <row r="74" spans="1:5">
+      <c r="A74" s="34"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -4235,8 +4193,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="33" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4250,12 +4208,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="37" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="34"/>
+      <c r="B76" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -4263,21 +4221,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="36"/>
+    <row r="77" spans="1:5">
+      <c r="A77" s="34"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="36" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="34"/>
+      <c r="B78" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -4285,17 +4243,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+    <row r="79" spans="1:5">
+      <c r="A79" s="34"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -4307,8 +4265,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+    <row r="81" spans="1:5">
+      <c r="A81" s="34"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -4320,8 +4278,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4335,12 +4293,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="34"/>
+      <c r="B83" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -4348,17 +4306,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
+    <row r="84" spans="1:5">
+      <c r="A84" s="34"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
+    <row r="85" spans="1:5">
+      <c r="A85" s="34"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -4370,8 +4328,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="33"/>
+    <row r="86" spans="1:5">
+      <c r="A86" s="34"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -4383,35 +4341,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4428,6 +4380,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -4439,27 +4397,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -4468,8 +4426,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4479,8 +4437,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -4488,8 +4446,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -4497,8 +4455,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:3" ht="78.75">
+      <c r="A7" s="42"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -4506,7 +4464,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -4515,7 +4473,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -4526,7 +4484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -4537,7 +4495,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -4559,27 +4517,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15232">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4604,8 +4562,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:15232" ht="27">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4627,8 +4585,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:15232" ht="54">
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -4648,8 +4606,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:15232">
+      <c r="A4" s="34"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4661,8 +4619,8 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:15232">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -4682,8 +4640,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:15232">
+      <c r="A6" s="34"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4695,8 +4653,8 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:15232">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -4714,8 +4672,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:15232" ht="27">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -4733,8 +4691,8 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:15232">
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -4752,8 +4710,8 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:15232">
+      <c r="A10" s="34"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -4769,8 +4727,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:15232">
+      <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -4786,8 +4744,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:15232">
+      <c r="A12" s="34"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -4803,7 +4761,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15232">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -4813,7 +4771,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15232">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4823,8 +4781,8 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:15232" s="15" customFormat="1">
+      <c r="A15" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -20067,8 +20025,8 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:15232">
+      <c r="A16" s="34"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -20088,8 +20046,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -20109,8 +20067,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="34"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -20130,8 +20088,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:9" s="18" customFormat="1">
+      <c r="A19" s="34"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -20149,8 +20107,8 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:9" s="18" customFormat="1">
+      <c r="A20" s="34"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -20170,8 +20128,8 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -20191,8 +20149,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A22" s="34"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -20212,8 +20170,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+    <row r="23" spans="1:9" s="18" customFormat="1">
+      <c r="A23" s="34"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -20233,8 +20191,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -20254,8 +20212,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -20275,8 +20233,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A26" s="34"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -20296,8 +20254,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A27" s="34"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -20317,8 +20275,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:9" s="18" customFormat="1">
+      <c r="A28" s="34"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -20336,8 +20294,8 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -20357,8 +20315,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="34"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -20378,8 +20336,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A31" s="34"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -20399,8 +20357,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -20420,8 +20378,8 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -20441,8 +20399,8 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A34" s="34"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -20462,8 +20420,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A35" s="34"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -20483,8 +20441,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A36" s="34"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -20504,8 +20462,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A37" s="34"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -20525,8 +20483,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A38" s="34"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -20548,8 +20506,8 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A39" s="34"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -20571,8 +20529,8 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A40" s="34"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -20594,8 +20552,8 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A41" s="34"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -20617,8 +20575,8 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A42" s="34"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -20640,8 +20598,8 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A43" s="34"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -20661,8 +20619,8 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:9" s="18" customFormat="1">
+      <c r="A44" s="34"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -20680,8 +20638,8 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+    <row r="45" spans="1:9" s="18" customFormat="1">
+      <c r="A45" s="34"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -20699,8 +20657,8 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A46" s="34"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -20718,8 +20676,8 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:9" s="18" customFormat="1">
+      <c r="A47" s="34"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -20735,8 +20693,8 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:9" s="18" customFormat="1">
+      <c r="A48" s="34"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -20752,8 +20710,8 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
+    <row r="49" spans="1:9" s="18" customFormat="1">
+      <c r="A49" s="34"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -20769,8 +20727,8 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:9" s="18" customFormat="1">
+      <c r="A50" s="34"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -20786,7 +20744,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -20797,7 +20755,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -20808,8 +20766,8 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+    <row r="53" spans="1:9" s="18" customFormat="1">
+      <c r="A53" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -20827,8 +20785,8 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+    <row r="54" spans="1:9" s="18" customFormat="1">
+      <c r="A54" s="34"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -20844,8 +20802,8 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A55" s="34"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -20865,8 +20823,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
+    <row r="56" spans="1:9" s="18" customFormat="1">
+      <c r="A56" s="34"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -20882,8 +20840,8 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
+    <row r="57" spans="1:9" s="18" customFormat="1">
+      <c r="A57" s="34"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -20899,8 +20857,8 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
+    <row r="58" spans="1:9" s="18" customFormat="1">
+      <c r="A58" s="34"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -20916,8 +20874,8 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
+    <row r="59" spans="1:9" s="18" customFormat="1">
+      <c r="A59" s="34"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -20933,8 +20891,8 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+    <row r="60" spans="1:9" s="18" customFormat="1">
+      <c r="A60" s="34"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -20950,8 +20908,8 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
+    <row r="61" spans="1:9" s="18" customFormat="1">
+      <c r="A61" s="34"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -20969,8 +20927,8 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+    <row r="62" spans="1:9" s="18" customFormat="1">
+      <c r="A62" s="34"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -20986,8 +20944,8 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+    <row r="63" spans="1:9" s="18" customFormat="1">
+      <c r="A63" s="34"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -21005,8 +20963,8 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
+    <row r="64" spans="1:9" s="18" customFormat="1">
+      <c r="A64" s="34"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -21022,7 +20980,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="18" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -21033,7 +20991,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -21044,8 +21002,8 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A67" s="42" t="s">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A67" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -21067,8 +21025,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A68" s="43"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -21088,8 +21046,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="42"/>
+    <row r="69" spans="1:9" s="18" customFormat="1">
+      <c r="A69" s="43"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -21105,7 +21063,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -21116,7 +21074,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="18" customFormat="1">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -21127,8 +21085,8 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A72" s="43" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -21150,8 +21108,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A73" s="43"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -21171,8 +21129,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:9" s="18" customFormat="1">
+      <c r="A74" s="43"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -21188,7 +21146,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="18" customFormat="1">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -21199,7 +21157,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="18" customFormat="1">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -21210,8 +21168,8 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A77" s="33" t="s">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A77" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -21233,8 +21191,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A78" s="34"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -21254,8 +21212,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
+    <row r="79" spans="1:9" s="18" customFormat="1">
+      <c r="A79" s="34"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -21267,8 +21225,8 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+    <row r="80" spans="1:9" s="18" customFormat="1">
+      <c r="A80" s="34"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -21288,8 +21246,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+    <row r="81" spans="1:9" s="18" customFormat="1">
+      <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -21309,8 +21267,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
+    <row r="82" spans="1:9" s="18" customFormat="1">
+      <c r="A82" s="34"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -21322,8 +21280,8 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A83" s="34"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -21343,8 +21301,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
+    <row r="84" spans="1:9" s="18" customFormat="1">
+      <c r="A84" s="34"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -21360,7 +21318,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="18" customFormat="1">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -21371,7 +21329,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="18" customFormat="1">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -21382,8 +21340,8 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A87" s="33" t="s">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A87" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -21405,8 +21363,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A88" s="34"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -21426,8 +21384,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+    <row r="89" spans="1:9" s="18" customFormat="1">
+      <c r="A89" s="34"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -21439,8 +21397,8 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A90" s="34"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -21460,8 +21418,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
+    <row r="91" spans="1:9" s="18" customFormat="1">
+      <c r="A91" s="34"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -21473,8 +21431,8 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A92" s="34"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -21494,8 +21452,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
+    <row r="93" spans="1:9" s="18" customFormat="1">
+      <c r="A93" s="34"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -21511,7 +21469,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -21522,7 +21480,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -21533,8 +21491,8 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="33" t="s">
+    <row r="96" spans="1:9" s="18" customFormat="1">
+      <c r="A96" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -21556,8 +21514,8 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A97" s="34"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -21577,8 +21535,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
+    <row r="98" spans="1:9" s="18" customFormat="1">
+      <c r="A98" s="34"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -21590,8 +21548,8 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -21611,8 +21569,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
+    <row r="100" spans="1:9" s="18" customFormat="1">
+      <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -21628,7 +21586,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="18" customFormat="1">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -21639,7 +21597,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="18" customFormat="1">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -21650,7 +21608,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="18" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -21661,7 +21619,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="18" customFormat="1">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -21672,7 +21630,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="18" customFormat="1">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -21683,7 +21641,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="18" customFormat="1">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -21692,7 +21650,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="18" customFormat="1">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -21701,7 +21659,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="18" customFormat="1">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -21710,7 +21668,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="18" customFormat="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -21720,7 +21678,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -21730,7 +21688,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -21740,7 +21698,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="18" customFormat="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -21750,7 +21708,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="18" customFormat="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -21760,7 +21718,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="18" customFormat="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -21770,7 +21728,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="18" customFormat="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -21780,7 +21738,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="18" customFormat="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -21790,7 +21748,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="18" customFormat="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -21800,7 +21758,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="18" customFormat="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -21810,7 +21768,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="18" customFormat="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -21820,7 +21778,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="18" customFormat="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -21830,7 +21788,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="18" customFormat="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -21840,7 +21798,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="18" customFormat="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -21850,7 +21808,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="18" customFormat="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -21860,7 +21818,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="18" customFormat="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -21870,7 +21828,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="18" customFormat="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -21880,7 +21838,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="18" customFormat="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -21890,7 +21848,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="18" customFormat="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -21900,7 +21858,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="18" customFormat="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -21910,7 +21868,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="18" customFormat="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -21920,7 +21878,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="18" customFormat="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -21930,7 +21888,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="18" customFormat="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -21940,7 +21898,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="18" customFormat="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -21950,7 +21908,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="18" customFormat="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -21960,7 +21918,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="18" customFormat="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -21970,7 +21928,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="18" customFormat="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -21980,7 +21938,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="18" customFormat="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -21990,7 +21948,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="18" customFormat="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -22000,7 +21958,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="18" customFormat="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -22010,7 +21968,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="18" customFormat="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -22020,7 +21978,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="18" customFormat="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -22030,7 +21988,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="18" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -22040,7 +21998,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="18" customFormat="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -22067,25 +22025,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -22103,11 +22061,11 @@
         <v>300</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -22118,11 +22076,11 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -22131,20 +22089,20 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="44"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="34"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="44"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -22153,20 +22111,20 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="44"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="34"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="44"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -22175,11 +22133,11 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="44"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -22188,11 +22146,11 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -22201,11 +22159,11 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="44"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="34"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -22214,11 +22172,11 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="44"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -22227,11 +22185,11 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="44"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="34"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -22240,27 +22198,27 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="44"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="44"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="44"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -22271,11 +22229,11 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="34"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -22284,11 +22242,11 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -22297,11 +22255,11 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="44"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="34"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -22310,11 +22268,11 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="44"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="34"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -22323,11 +22281,11 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="34"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -22336,11 +22294,11 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="44"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -22349,11 +22307,11 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="34"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -22362,11 +22320,11 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="44"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="34"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -22375,11 +22333,11 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="44"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -22388,11 +22346,11 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -22401,11 +22359,11 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="34"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -22414,11 +22372,11 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="34"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -22427,11 +22385,11 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="44"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="34"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -22440,11 +22398,11 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="44"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -22453,11 +22411,11 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="44"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="34"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -22466,11 +22424,11 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="44"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="34"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -22479,11 +22437,11 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="44"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -22492,11 +22450,11 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="44"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -22509,13 +22467,15 @@
       <c r="E33" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+      <c r="G33" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="34"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -22524,11 +22484,11 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="44"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="34"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -22537,11 +22497,11 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="34"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -22550,11 +22510,11 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="44"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A37" s="34"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -22563,11 +22523,11 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="34"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -22580,13 +22540,13 @@
       <c r="E38" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="33" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="34"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -22599,13 +22559,13 @@
       <c r="E39" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="33" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="34"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -22618,13 +22578,13 @@
       <c r="E40" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="34"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -22637,13 +22597,13 @@
       <c r="E41" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="33" t="s">
         <v>100</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="34"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -22656,13 +22616,13 @@
       <c r="E42" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="33" t="s">
         <v>308</v>
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="34"/>
       <c r="B43" s="21" t="s">
         <v>205</v>
       </c>
@@ -22675,13 +22635,13 @@
       <c r="E43" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="33" t="s">
         <v>295</v>
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="34"/>
       <c r="B44" s="21" t="s">
         <v>205</v>
       </c>
@@ -22694,13 +22654,13 @@
       <c r="E44" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="34"/>
       <c r="B45" s="21" t="s">
         <v>205</v>
       </c>
@@ -22713,13 +22673,13 @@
       <c r="E45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="33" t="s">
         <v>295</v>
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="34"/>
       <c r="B46" s="21" t="s">
         <v>205</v>
       </c>
@@ -22732,13 +22692,13 @@
       <c r="E46" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="33" t="s">
         <v>311</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="34"/>
       <c r="B47" s="21" t="s">
         <v>205</v>
       </c>
@@ -22751,13 +22711,13 @@
       <c r="E47" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34"/>
       <c r="B48" s="21" t="s">
         <v>205</v>
       </c>
@@ -22770,13 +22730,13 @@
       <c r="E48" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="33" t="s">
         <v>295</v>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="34"/>
       <c r="B49" s="21" t="s">
         <v>205</v>
       </c>
@@ -22789,13 +22749,13 @@
       <c r="E49" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="34"/>
       <c r="B50" s="21" t="s">
         <v>206</v>
       </c>
@@ -22803,18 +22763,20 @@
         <v>142</v>
       </c>
       <c r="D50" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+      <c r="G50" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="34"/>
       <c r="B51" s="21" t="s">
         <v>207</v>
       </c>
@@ -22823,11 +22785,11 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="44"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="34"/>
       <c r="B52" s="21" t="s">
         <v>225</v>
       </c>
@@ -22836,11 +22798,11 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="44"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+    <row r="53" spans="1:7" ht="27">
+      <c r="A53" s="34"/>
       <c r="B53" s="21" t="s">
         <v>226</v>
       </c>
@@ -22849,11 +22811,11 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="44"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A54" s="34"/>
       <c r="B54" s="21" t="s">
         <v>174</v>
       </c>
@@ -22862,11 +22824,11 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="44"/>
+      <c r="F54" s="33"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="34"/>
       <c r="B55" s="21" t="s">
         <v>208</v>
       </c>
@@ -22875,11 +22837,11 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="44"/>
+      <c r="F55" s="33"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="34"/>
       <c r="B56" s="21" t="s">
         <v>209</v>
       </c>
@@ -22888,11 +22850,11 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="44"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="34"/>
       <c r="B57" s="21" t="s">
         <v>209</v>
       </c>
@@ -22901,27 +22863,27 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="44"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="44"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="44"/>
+      <c r="F59" s="33"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="33" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -22932,11 +22894,11 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="44"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="34"/>
       <c r="B61" s="21" t="s">
         <v>211</v>
       </c>
@@ -22945,11 +22907,11 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="44"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="34"/>
       <c r="B62" s="21" t="s">
         <v>189</v>
       </c>
@@ -22958,11 +22920,11 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="44"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="34"/>
       <c r="B63" s="21" t="s">
         <v>199</v>
       </c>
@@ -22971,11 +22933,11 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="44"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="34"/>
       <c r="B64" s="21" t="s">
         <v>212</v>
       </c>
@@ -22984,11 +22946,11 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="44"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="34"/>
       <c r="B65" s="21" t="s">
         <v>202</v>
       </c>
@@ -22997,11 +22959,11 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="44"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="34"/>
       <c r="B66" s="21" t="s">
         <v>197</v>
       </c>
@@ -23010,11 +22972,11 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="44"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="34"/>
       <c r="B67" s="21" t="s">
         <v>204</v>
       </c>
@@ -23023,11 +22985,11 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="44"/>
+      <c r="F67" s="33"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="34"/>
       <c r="B68" s="21" t="s">
         <v>213</v>
       </c>
@@ -23036,11 +22998,11 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="44"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
+    <row r="69" spans="1:7">
+      <c r="A69" s="34"/>
       <c r="B69" s="21" t="s">
         <v>190</v>
       </c>
@@ -23049,11 +23011,11 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="44"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
+    <row r="70" spans="1:7">
+      <c r="A70" s="34"/>
       <c r="B70" s="21" t="s">
         <v>214</v>
       </c>
@@ -23062,11 +23024,11 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="33"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="34"/>
       <c r="B71" s="21" t="s">
         <v>174</v>
       </c>
@@ -23075,27 +23037,27 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="44"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="44"/>
+      <c r="F73" s="33"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="33" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="34" t="s">
         <v>176</v>
       </c>
       <c r="B74" s="21" t="s">
@@ -23110,13 +23072,13 @@
       <c r="E74" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="33" t="s">
         <v>295</v>
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="34"/>
       <c r="B75" s="21" t="s">
         <v>216</v>
       </c>
@@ -23129,13 +23091,13 @@
       <c r="E75" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="33" t="s">
         <v>100</v>
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="34"/>
       <c r="B76" s="21" t="s">
         <v>174</v>
       </c>
@@ -23144,27 +23106,27 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="44"/>
+      <c r="F76" s="33"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="44"/>
+      <c r="F77" s="33"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="44"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="33" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" s="34" t="s">
         <v>168</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -23184,8 +23146,8 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="34"/>
       <c r="B80" s="21" t="s">
         <v>215</v>
       </c>
@@ -23198,13 +23160,13 @@
       <c r="E80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="33" t="s">
         <v>103</v>
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>174</v>
       </c>
@@ -23213,27 +23175,27 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="44"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="44"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="33" t="s">
+    <row r="84" spans="1:7">
+      <c r="A84" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B84" s="21" t="s">
@@ -23244,13 +23206,13 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="44"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="34"/>
       <c r="B85" s="21" t="s">
         <v>217</v>
       </c>
@@ -23259,24 +23221,24 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="44"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="33"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="34"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="34"/>
       <c r="B87" s="21" t="s">
         <v>220</v>
       </c>
@@ -23285,13 +23247,13 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="44"/>
+      <c r="F87" s="33"/>
       <c r="G87" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="34"/>
       <c r="B88" s="21" t="s">
         <v>219</v>
       </c>
@@ -23300,22 +23262,22 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="44"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="34"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="33"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
+    <row r="90" spans="1:7">
+      <c r="A90" s="34"/>
       <c r="B90" s="21" t="s">
         <v>215</v>
       </c>
@@ -23324,13 +23286,13 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="33"/>
       <c r="G90" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="34"/>
       <c r="B91" s="21" t="s">
         <v>174</v>
       </c>
@@ -23339,29 +23301,29 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="44"/>
+      <c r="F91" s="33"/>
       <c r="G91" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="44"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="44"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="33" t="s">
+    <row r="94" spans="1:7">
+      <c r="A94" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B94" s="21" t="s">
@@ -23372,13 +23334,13 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="44"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
         <v>217</v>
       </c>
@@ -23386,29 +23348,29 @@
         <v>22</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="F95" s="44" t="s">
-        <v>319</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="34"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="44"/>
+      <c r="F96" s="33"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
+    <row r="97" spans="1:7">
+      <c r="A97" s="34"/>
       <c r="B97" s="21" t="s">
         <v>219</v>
       </c>
@@ -23416,44 +23378,50 @@
         <v>24</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F97" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="F97" s="44" t="s">
-        <v>319</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="34"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="44"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
+    <row r="99" spans="1:7">
+      <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="44"/>
+      <c r="D99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="G99" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -23462,29 +23430,29 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="44"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="44"/>
+      <c r="F101" s="33"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="44"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="33" t="s">
+    <row r="103" spans="1:7">
+      <c r="A103" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="21" t="s">
@@ -23499,15 +23467,15 @@
       <c r="E103" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F103" s="44" t="s">
+      <c r="F103" s="33" t="s">
         <v>104</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="34"/>
       <c r="B104" s="21" t="s">
         <v>189</v>
       </c>
@@ -23516,22 +23484,22 @@
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="44"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="34"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="44"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
+    <row r="106" spans="1:7">
+      <c r="A106" s="34"/>
       <c r="B106" s="21" t="s">
         <v>218</v>
       </c>
@@ -23540,13 +23508,13 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="44"/>
+      <c r="F106" s="33"/>
       <c r="G106" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="34"/>
       <c r="B107" s="21" t="s">
         <v>174</v>
       </c>
@@ -23555,9 +23523,9 @@
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="44"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -23576,21 +23544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -23601,7 +23569,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -23612,8 +23580,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="44" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -23623,8 +23591,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -23632,7 +23600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -23643,7 +23611,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -23654,7 +23622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -23665,7 +23633,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -23676,7 +23644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -23687,7 +23655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -23698,8 +23666,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="38" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -23709,8 +23677,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="39"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -23718,7 +23686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -23729,7 +23697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -23740,7 +23708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>

--- a/Sonia_IndiaLab_English_20200625.xlsx
+++ b/Sonia_IndiaLab_English_20200625.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC729A9-DB2E-4FD2-B5C3-4D3D361E2330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -15,6 +21,7 @@
     <sheet name="App_Issue" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$H$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'App placement (necessary)'!$A$1:$E$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'アプリ配置 (必須)'!$A$1:$D$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'App placement (necessary)'!$1:$1</definedName>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="331">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1479,12 +1486,33 @@
   <si>
     <t xml:space="preserve">no ini found(from web.config) </t>
   </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Skip Dll issue</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>YTS</t>
+  </si>
+  <si>
+    <t>Import Document Need, Code changes done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1599,7 +1627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1659,26 +1687,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,13 +1793,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,16 +1802,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1874,7 +1886,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1906,9 +1918,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1940,6 +1970,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2115,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2129,7 +2177,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -2137,7 +2185,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2149,8 +2197,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2163,48 +2211,48 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2215,8 +2263,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -2227,8 +2275,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -2239,8 +2287,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -2251,8 +2299,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -2263,8 +2311,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -2275,8 +2323,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2289,8 +2337,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2301,8 +2349,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2313,8 +2361,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2325,8 +2373,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2337,8 +2385,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2349,8 +2397,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -2361,8 +2409,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2373,8 +2421,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -2385,8 +2433,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2397,8 +2445,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2409,8 +2457,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2421,8 +2469,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2433,8 +2481,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2445,8 +2493,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2457,8 +2505,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -2469,8 +2517,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2481,8 +2529,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2493,8 +2541,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -2505,8 +2553,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2517,8 +2565,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2529,8 +2577,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2541,8 +2589,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -2553,8 +2601,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2565,8 +2613,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2577,8 +2625,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -2589,8 +2637,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -2601,8 +2649,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -2613,8 +2661,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -2625,8 +2673,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -2637,8 +2685,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -2649,8 +2697,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -2661,8 +2709,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -2673,8 +2721,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -2685,8 +2733,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="34"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -2697,8 +2745,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="34"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -2709,8 +2757,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2723,8 +2771,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,8 +2783,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="34"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -2747,8 +2795,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="34"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -2759,8 +2807,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="34"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -2771,8 +2819,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -2783,8 +2831,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -2795,8 +2843,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -2807,8 +2855,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -2819,8 +2867,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="34"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -2831,8 +2879,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="34"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -2843,8 +2891,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="34"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -2855,8 +2903,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2869,8 +2917,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="34"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -2881,8 +2929,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="34"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -2893,8 +2941,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="34" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2907,8 +2955,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="34"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -2919,8 +2967,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="34"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="33"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -2931,8 +2979,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="34" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2945,28 +2993,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="34"/>
-      <c r="B68" s="35" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="33"/>
+      <c r="B68" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="34"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="33"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="34"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="33"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -2977,28 +3025,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="34"/>
-      <c r="B71" s="35" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="34"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="34"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="33"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -3009,8 +3057,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="34"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="33"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -3021,8 +3069,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="34" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="33" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3035,48 +3083,48 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="33"/>
+      <c r="B76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="33"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="34"/>
-      <c r="B78" s="35" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="33"/>
+      <c r="B78" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="33"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="34"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="33"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -3087,8 +3135,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="34"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="33"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -3099,8 +3147,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="34" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3113,28 +3161,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="33"/>
+      <c r="B83" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="34"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="34"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="33"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -3145,8 +3193,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="34"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="33"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -3157,13 +3205,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -3172,20 +3234,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -3198,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3209,10 +3257,10 @@
       <selection activeCell="I12" sqref="I12"/>
       <selection pane="topRight" activeCell="I12" sqref="I12"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3221,7 +3269,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -3234,8 +3282,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3249,12 +3297,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -3262,21 +3310,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="34"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="34"/>
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -3284,17 +3332,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="34"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="34"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -3306,8 +3354,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -3321,8 +3369,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -3336,8 +3384,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -3349,8 +3397,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -3362,8 +3410,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -3375,8 +3423,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3390,8 +3438,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -3403,8 +3451,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -3416,8 +3464,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -3429,8 +3477,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -3442,8 +3490,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -3455,8 +3503,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -3468,8 +3516,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -3481,8 +3529,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -3494,8 +3542,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -3507,8 +3555,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -3520,8 +3568,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -3533,8 +3581,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -3546,8 +3594,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -3559,8 +3607,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -3572,8 +3620,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -3585,8 +3633,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -3598,8 +3646,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -3611,8 +3659,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -3624,8 +3672,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -3637,8 +3685,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -3650,8 +3698,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -3663,8 +3711,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -3676,8 +3724,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -3689,8 +3737,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -3702,8 +3750,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -3715,8 +3763,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -3728,8 +3776,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -3741,8 +3789,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -3754,8 +3802,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -3769,8 +3817,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -3784,8 +3832,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -3799,8 +3847,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -3812,8 +3860,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -3825,8 +3873,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="34"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -3838,8 +3886,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="34"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -3851,8 +3899,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="33" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3866,8 +3914,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -3879,8 +3927,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="34"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -3892,8 +3940,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="34"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -3905,8 +3953,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="34"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -3918,8 +3966,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -3931,8 +3979,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -3944,8 +3992,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -3957,8 +4005,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -3972,8 +4020,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="34"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -3985,8 +4033,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="34"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -4000,8 +4048,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="34"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -4013,8 +4061,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="33" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4028,8 +4076,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="34"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -4041,8 +4089,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="34"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -4054,8 +4102,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="34" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4069,8 +4117,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="34"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -4082,8 +4130,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="34"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="33"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -4095,8 +4143,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="34" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4110,12 +4158,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="34"/>
-      <c r="B68" s="40" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="33"/>
+      <c r="B68" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4123,17 +4171,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="34"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="35"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="33"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="34"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="33"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -4145,12 +4193,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="34"/>
-      <c r="B71" s="35" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -4158,17 +4206,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="34"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="34"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="33"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -4180,8 +4228,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="34"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="33"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -4193,8 +4241,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="34" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4208,12 +4256,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="34"/>
-      <c r="B76" s="40" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="33"/>
+      <c r="B76" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -4221,21 +4269,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="34"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="35"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="33"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="34"/>
-      <c r="B78" s="35" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="33"/>
+      <c r="B78" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -4243,17 +4291,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="33"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="34"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="33"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -4265,8 +4313,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="34"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="33"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -4278,8 +4326,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="34" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4293,12 +4341,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="33"/>
+      <c r="B83" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -4306,17 +4354,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="34"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="34"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="33"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -4328,8 +4376,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="34"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="33"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -4341,29 +4389,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4380,12 +4434,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -4397,14 +4445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -4412,12 +4460,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -4426,8 +4474,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4437,8 +4485,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -4446,8 +4494,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -4455,8 +4503,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -4464,7 +4512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -4473,7 +4521,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -4484,7 +4532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -4495,7 +4543,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -4517,14 +4565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="F67" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -4537,7 +4585,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4562,8 +4610,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4585,8 +4633,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -4606,8 +4654,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4619,8 +4667,8 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -4640,8 +4688,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4653,8 +4701,8 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -4672,8 +4720,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -4691,8 +4739,8 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -4710,8 +4758,8 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -4727,8 +4775,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -4744,8 +4792,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -4761,7 +4809,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -4771,7 +4819,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4781,8 +4829,8 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -20025,8 +20073,8 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -20046,8 +20094,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -20067,8 +20115,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -20088,8 +20136,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -20107,8 +20155,8 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -20128,8 +20176,8 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -20149,8 +20197,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -20170,8 +20218,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -20191,8 +20239,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -20212,8 +20260,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -20233,8 +20281,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -20254,8 +20302,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -20275,8 +20323,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -20294,8 +20342,8 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -20315,8 +20363,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -20336,8 +20384,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -20357,8 +20405,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -20378,8 +20426,8 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -20399,8 +20447,8 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -20420,8 +20468,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -20441,8 +20489,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -20462,8 +20510,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -20483,8 +20531,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -20506,8 +20554,8 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -20529,8 +20577,8 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -20552,8 +20600,8 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -20575,8 +20623,8 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -20598,8 +20646,8 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -20619,8 +20667,8 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -20638,8 +20686,8 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -20657,8 +20705,8 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -20676,8 +20724,8 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
-      <c r="A47" s="34"/>
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -20693,8 +20741,8 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
-      <c r="A48" s="34"/>
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -20710,8 +20758,8 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
-      <c r="A49" s="34"/>
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -20727,8 +20775,8 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -20744,7 +20792,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -20755,7 +20803,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -20766,8 +20814,8 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="33" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -20785,8 +20833,8 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -20802,8 +20850,8 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -20823,8 +20871,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -20840,8 +20888,8 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -20857,8 +20905,8 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
-      <c r="A58" s="34"/>
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -20874,8 +20922,8 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
-      <c r="A59" s="34"/>
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -20891,8 +20939,8 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
-      <c r="A60" s="34"/>
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -20908,8 +20956,8 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
-      <c r="A61" s="34"/>
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -20927,8 +20975,8 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
-      <c r="A62" s="34"/>
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -20944,8 +20992,8 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
-      <c r="A63" s="34"/>
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -20963,8 +21011,8 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
-      <c r="A64" s="34"/>
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -20980,7 +21028,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -20991,7 +21039,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -21002,8 +21050,8 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A67" s="43" t="s">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="42" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -21025,8 +21073,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A68" s="43"/>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="42"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -21046,8 +21094,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
-      <c r="A69" s="43"/>
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="42"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -21063,7 +21111,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -21074,7 +21122,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -21085,8 +21133,8 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A72" s="43" t="s">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="42" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -21108,8 +21156,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A73" s="43"/>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="42"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -21129,8 +21177,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
-      <c r="A74" s="43"/>
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="42"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -21146,7 +21194,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -21157,7 +21205,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -21168,8 +21216,8 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A77" s="34" t="s">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -21191,8 +21239,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A78" s="34"/>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A78" s="33"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -21212,8 +21260,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
-      <c r="A79" s="34"/>
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="33"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -21225,8 +21273,8 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
-      <c r="A80" s="34"/>
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="33"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -21246,8 +21294,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
-      <c r="A81" s="34"/>
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="33"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -21267,8 +21315,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
-      <c r="A82" s="34"/>
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="33"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -21280,8 +21328,8 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A83" s="34"/>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A83" s="33"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -21301,8 +21349,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
-      <c r="A84" s="34"/>
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -21318,7 +21366,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -21329,7 +21377,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -21340,8 +21388,8 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A87" s="34" t="s">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -21363,8 +21411,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A88" s="34"/>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A88" s="33"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -21384,8 +21432,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
-      <c r="A89" s="34"/>
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="33"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -21397,8 +21445,8 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A90" s="34"/>
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="33"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -21418,8 +21466,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
-      <c r="A91" s="34"/>
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="33"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -21431,8 +21479,8 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A92" s="34"/>
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A92" s="33"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -21452,8 +21500,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
-      <c r="A93" s="34"/>
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="33"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -21469,7 +21517,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -21480,7 +21528,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -21491,8 +21539,8 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
-      <c r="A96" s="34" t="s">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -21514,8 +21562,8 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A97" s="34"/>
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A97" s="33"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -21535,8 +21583,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
-      <c r="A98" s="34"/>
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="33"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -21548,8 +21596,8 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A99" s="34"/>
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A99" s="33"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -21569,8 +21617,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
-      <c r="A100" s="34"/>
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="33"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -21586,7 +21634,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -21597,7 +21645,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -21608,7 +21656,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -21619,7 +21667,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -21630,7 +21678,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -21641,7 +21689,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -21650,7 +21698,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -21659,7 +21707,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -21668,7 +21716,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -21678,7 +21726,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -21688,7 +21736,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -21698,7 +21746,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -21708,7 +21756,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -21718,7 +21766,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -21728,7 +21776,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -21738,7 +21786,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -21748,7 +21796,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -21758,7 +21806,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -21768,7 +21816,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -21778,7 +21826,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -21788,7 +21836,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -21798,7 +21846,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -21808,7 +21856,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -21818,7 +21866,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -21828,7 +21876,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -21838,7 +21886,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -21848,7 +21896,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -21858,7 +21906,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -21868,7 +21916,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -21878,7 +21926,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -21888,7 +21936,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -21898,7 +21946,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -21908,7 +21956,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -21918,7 +21966,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -21928,7 +21976,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -21938,7 +21986,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -21948,7 +21996,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -21958,7 +22006,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -21968,7 +22016,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -21978,7 +22026,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -21988,7 +22036,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -21998,7 +22046,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -22025,14 +22073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -22040,10 +22088,12 @@
     <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -22060,12 +22110,18 @@
       <c r="F1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="34" t="s">
+      <c r="H1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -22076,11 +22132,13 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="33"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="34"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -22089,1476 +22147,1216 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="34"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="33"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="34"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
       <c r="B5" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>10</v>
+        <v>177</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="34"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="33"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
       <c r="B7" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>290</v>
+        <v>183</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="34"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
       <c r="B8" s="21" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="34"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
       <c r="B10" s="21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="34"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
       <c r="B11" s="21" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="34"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
       <c r="B12" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>99</v>
+        <v>188</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="33"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="34" t="s">
-        <v>166</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
       <c r="B15" s="21" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="34"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="34"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
       <c r="B17" s="21" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
       <c r="B18" s="21" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="34"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
       <c r="B19" s="21" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
       <c r="B20" s="21" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="34"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
       <c r="B21" s="21" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
       <c r="B22" s="21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="33"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
       <c r="B23" s="21" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="33"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
       <c r="B25" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
       <c r="B26" s="21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="33"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="34"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
       <c r="B28" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="34"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
       <c r="B30" s="21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="34"/>
+        <v>143</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
       <c r="B31" s="21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="34"/>
+        <v>143</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
       <c r="B32" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
       <c r="B33" s="21" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F34" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="34"/>
-      <c r="B34" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="34"/>
+      <c r="G34" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
       <c r="B35" s="21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
       <c r="B36" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A37" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
       <c r="B37" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="34"/>
+        <v>310</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="34"/>
+        <v>309</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="34"/>
+      <c r="G40" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
       <c r="B41" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F41" s="33" t="s">
+      <c r="E50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="34"/>
-      <c r="B42" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="34"/>
-      <c r="B43" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="34"/>
-      <c r="B44" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="34"/>
-      <c r="B45" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="34"/>
-      <c r="B46" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="34"/>
-      <c r="B47" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="34"/>
-      <c r="B48" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="34"/>
-      <c r="B49" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="34"/>
-      <c r="B50" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="34"/>
-      <c r="B51" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="34"/>
+      <c r="G51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="33" t="s">
+        <v>168</v>
+      </c>
       <c r="B52" s="21" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="27">
-      <c r="A53" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
       <c r="B53" s="21" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A54" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="33" t="s">
+        <v>169</v>
+      </c>
       <c r="B54" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>126</v>
+        <v>187</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="34"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
       <c r="B55" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>101</v>
+        <v>217</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="34"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
       <c r="B56" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>137</v>
+        <v>220</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="34"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
       <c r="B57" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>137</v>
+        <v>219</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
+      <c r="B58" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="34" t="s">
-        <v>175</v>
-      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
       <c r="B60" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="34"/>
+        <v>217</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
       <c r="B61" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="34"/>
+        <v>219</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
       <c r="B62" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
+      <c r="B64" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="34"/>
-      <c r="B63" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="34"/>
-      <c r="B64" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>94</v>
+      <c r="C64" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="34"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
       <c r="B65" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>95</v>
+        <v>218</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="34"/>
-      <c r="B66" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="34"/>
-      <c r="B67" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="34"/>
-      <c r="B68" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="34"/>
-      <c r="B69" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="34"/>
-      <c r="B70" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="34"/>
-      <c r="B71" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="34"/>
-      <c r="B75" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="34"/>
-      <c r="B76" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E79" t="s">
-        <v>313</v>
-      </c>
-      <c r="F79" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="34"/>
-      <c r="B80" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="34"/>
-      <c r="B81" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="34"/>
-      <c r="B85" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="34"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="34"/>
-      <c r="B87" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="34"/>
-      <c r="B88" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="34"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="34"/>
-      <c r="B90" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="34"/>
-      <c r="B91" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="1" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="34"/>
-      <c r="B95" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="34"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="34"/>
-      <c r="B97" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="34"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="34"/>
-      <c r="B99" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="34"/>
-      <c r="B100" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="34"/>
-      <c r="B104" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="34"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="34"/>
-      <c r="B106" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="34"/>
-      <c r="B107" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H65" xr:uid="{B6E8845F-A5BF-4467-B53B-FC860CEFBC68}"/>
   <mergeCells count="8">
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A15:A57"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -23569,7 +23367,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -23580,8 +23378,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -23591,8 +23389,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -23600,7 +23398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -23611,7 +23409,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -23622,7 +23420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -23633,7 +23431,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -23644,7 +23442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -23655,7 +23453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -23666,8 +23464,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -23677,8 +23475,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -23686,7 +23484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -23697,7 +23495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -23708,7 +23506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
